--- a/data/all_waves/weigh_data.xlsx
+++ b/data/all_waves/weigh_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anuschka/Documents/climatechange/climatechange/data/all_waves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE404CF9-8986-564C-A337-AAD5943D0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4EA3B-3894-9148-9324-956F074CF4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15700" xr2:uid="{589232E4-3D71-D747-A62A-14D4E3B0C8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>male_perc</t>
   </si>
@@ -83,24 +83,6 @@
     <t>age_61_plus_perc</t>
   </si>
   <si>
-    <t>educ_low</t>
-  </si>
-  <si>
-    <t>educ_mid</t>
-  </si>
-  <si>
-    <t>educ_high</t>
-  </si>
-  <si>
-    <t>educ_low_perc</t>
-  </si>
-  <si>
-    <t>educ_mid_perc</t>
-  </si>
-  <si>
-    <t>educ_high_perc</t>
-  </si>
-  <si>
     <t>high_urban</t>
   </si>
   <si>
@@ -117,6 +99,12 @@
   </si>
   <si>
     <t>high_urban_perc</t>
+  </si>
+  <si>
+    <t>living_together_perc</t>
+  </si>
+  <si>
+    <t>not_living_together_perc</t>
   </si>
 </sst>
 </file>
@@ -471,18 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9464F51-D6CA-254C-B404-8BB877CB06E8}">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -550,22 +538,10 @@
         <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -579,46 +555,46 @@
         <v>7441337</v>
       </c>
       <c r="E2">
-        <f>C2/AC2</f>
+        <f>C2/W2</f>
         <v>0.49430082933354574</v>
       </c>
       <c r="F2" s="1">
-        <f>D2/AC2</f>
+        <f>D2/W2</f>
         <v>0.50569917066645431</v>
       </c>
       <c r="G2">
         <v>3974318</v>
       </c>
       <c r="H2">
-        <f>G2/AC2</f>
+        <f>G2/W2</f>
         <v>0.27008712501056747</v>
       </c>
       <c r="I2">
         <v>3362751</v>
       </c>
       <c r="J2">
-        <f>I2/AC2</f>
+        <f>I2/W2</f>
         <v>0.22852618983091208</v>
       </c>
       <c r="K2">
         <v>2282716</v>
       </c>
       <c r="L2">
-        <f>K2/AC2</f>
+        <f>K2/W2</f>
         <v>0.15512905652130066</v>
       </c>
       <c r="M2">
         <v>2367802</v>
       </c>
       <c r="N2">
-        <f>M2/AC2</f>
+        <f>M2/W2</f>
         <v>0.16091133995172799</v>
       </c>
-      <c r="AC2">
+      <c r="W2">
         <v>14714948</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1992</v>
       </c>
@@ -632,46 +608,46 @@
         <v>7648728</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">C3/AC3</f>
+        <f>C3/W3</f>
         <v>0.49443769147638827</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F19" si="1">D3/AC3</f>
+        <f>D3/W3</f>
         <v>0.50556230852361173</v>
       </c>
       <c r="G3">
         <v>3828528</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H19" si="2">G3/AC3</f>
+        <f>G3/W3</f>
         <v>0.25305638452920354</v>
       </c>
       <c r="I3">
         <v>3605015</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J19" si="3">I3/AC3</f>
+        <f>I3/W3</f>
         <v>0.23828271912169555</v>
       </c>
       <c r="K3">
         <v>2429065</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L19" si="4">K3/AC3</f>
+        <f>K3/W3</f>
         <v>0.16055528565715854</v>
       </c>
       <c r="M3">
         <v>2491681</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N19" si="5">M3/AC3</f>
+        <f>M3/W3</f>
         <v>0.16469405088851655</v>
       </c>
-      <c r="AC3">
+      <c r="W3">
         <v>15129150</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1993</v>
       </c>
@@ -685,46 +661,46 @@
         <v>7703914</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>C4/W4</f>
         <v>0.49446669775319962</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
+        <f>D4/W4</f>
         <v>0.50553330224680038</v>
       </c>
       <c r="G4">
         <v>3771688</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f>G4/W4</f>
         <v>0.2474993736540452</v>
       </c>
       <c r="I4">
         <v>3605434</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f>I4/W4</f>
         <v>0.23658973296598204</v>
       </c>
       <c r="K4">
         <v>2537408</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f>K4/W4</f>
         <v>0.16650552503408647</v>
       </c>
       <c r="M4">
         <v>2523208</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
+        <f>M4/W4</f>
         <v>0.16557371648950711</v>
       </c>
-      <c r="AC4">
+      <c r="W4">
         <v>15239182</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1995</v>
       </c>
@@ -738,46 +714,52 @@
         <v>7796640</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>C5/W5</f>
         <v>0.49451644638184267</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f>D5/W5</f>
         <v>0.50548355361815733</v>
       </c>
       <c r="G5">
         <v>3638804</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f>G5/W5</f>
         <v>0.23591644308830026</v>
       </c>
       <c r="I5">
         <v>3640905</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f>I5/W5</f>
         <v>0.23605265829717892</v>
       </c>
       <c r="K5">
         <v>2719560</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f>K5/W5</f>
         <v>0.17631862611045218</v>
       </c>
       <c r="M5">
         <v>2575811</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
+        <f>M5/W5</f>
         <v>0.16699887358256113</v>
       </c>
-      <c r="AC5">
+      <c r="U5">
+        <v>59.659153927854042</v>
+      </c>
+      <c r="V5">
+        <v>40.340846072145958</v>
+      </c>
+      <c r="W5">
         <v>15424122</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -791,67 +773,73 @@
         <v>8017633</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>C6/W6</f>
         <v>0.49460046205390207</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f>D6/W6</f>
         <v>0.50539953794609793</v>
       </c>
       <c r="G6">
         <v>3330583</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f>G6/W6</f>
         <v>0.2099466400234494</v>
       </c>
       <c r="I6">
         <v>3803904</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f>I6/W6</f>
         <v>0.2397829040056228</v>
       </c>
       <c r="K6">
         <v>3063307</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f>K6/W6</f>
         <v>0.19309862928211449</v>
       </c>
       <c r="M6">
         <v>2708223</v>
       </c>
       <c r="N6">
-        <f t="shared" si="5"/>
+        <f>M6/W6</f>
         <v>0.17071555318820344</v>
       </c>
+      <c r="O6">
+        <v>6485060</v>
+      </c>
+      <c r="P6">
+        <v>2770260</v>
+      </c>
+      <c r="Q6">
+        <v>6608590</v>
+      </c>
+      <c r="R6">
+        <f>Q6/W6</f>
+        <v>0.41657909915248093</v>
+      </c>
+      <c r="S6">
+        <f>P6/W6</f>
+        <v>0.17462611770712844</v>
+      </c>
+      <c r="T6">
+        <f>O6/W6</f>
+        <v>0.40879226170027011</v>
+      </c>
       <c r="U6">
-        <v>6485060</v>
+        <v>58.845121486136811</v>
       </c>
       <c r="V6">
-        <v>2770260</v>
+        <v>41.154878513863189</v>
       </c>
       <c r="W6">
-        <v>6608590</v>
-      </c>
-      <c r="X6">
-        <f>W6/AC6</f>
-        <v>0.41657909915248093</v>
-      </c>
-      <c r="Y6">
-        <f>V6/AC6</f>
-        <v>0.17462611770712844</v>
-      </c>
-      <c r="Z6">
-        <f>U6/AC6</f>
-        <v>0.40879226170027011</v>
-      </c>
-      <c r="AC6">
         <v>15863950</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -865,88 +853,73 @@
         <v>8212118</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>C7/W7</f>
         <v>0.49488855723743191</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f>D7/W7</f>
         <v>0.50511144276256803</v>
       </c>
       <c r="G7">
         <v>3171481</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f>G7/W7</f>
         <v>0.19507164212741124</v>
       </c>
       <c r="I7">
         <v>3887631</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f>I7/W7</f>
         <v>0.23912063895556362</v>
       </c>
       <c r="K7">
         <v>3312214</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f>K7/W7</f>
         <v>0.20372785586841016</v>
       </c>
       <c r="M7">
         <v>2857303</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
+        <f>M7/W7</f>
         <v>0.17574716300226251</v>
       </c>
       <c r="O7">
-        <v>5067000</v>
+        <v>6762600</v>
       </c>
       <c r="P7">
-        <v>4988000</v>
+        <v>2898190</v>
       </c>
       <c r="Q7">
-        <v>2880000</v>
+        <v>6597240</v>
       </c>
       <c r="R7">
-        <f>O7/AC7</f>
-        <v>0.31166133760838949</v>
+        <f t="shared" ref="R7:R19" si="0">Q7/W7</f>
+        <v>0.4057834306144803</v>
       </c>
       <c r="S7">
-        <f>P7/AC7</f>
-        <v>0.30680220090598909</v>
+        <f t="shared" ref="S7:S19" si="1">P7/W7</f>
+        <v>0.17826204303202256</v>
       </c>
       <c r="T7">
-        <f>Q7/AC7</f>
-        <v>0.17714321142928</v>
+        <f t="shared" ref="T7:T19" si="2">O7/W7</f>
+        <v>0.4159544033373781</v>
       </c>
       <c r="U7">
-        <v>6762600</v>
+        <v>57.569913701732169</v>
       </c>
       <c r="V7">
-        <v>2898190</v>
+        <v>42.430086298267831</v>
       </c>
       <c r="W7">
-        <v>6597240</v>
-      </c>
-      <c r="X7">
-        <f t="shared" ref="X7:X19" si="6">W7/AC7</f>
-        <v>0.4057834306144803</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" ref="Y7:Y19" si="7">V7/AC7</f>
-        <v>0.17826204303202256</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" ref="Z7:Z19" si="8">U7/AC7</f>
-        <v>0.4159544033373781</v>
-      </c>
-      <c r="AC7">
         <v>16258032</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -960,88 +933,73 @@
         <v>8269478</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>C8/W8</f>
         <v>0.49446863649279205</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f>D8/W8</f>
         <v>0.50553136350720795</v>
       </c>
       <c r="G8">
         <v>3152682</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f>G8/W8</f>
         <v>0.19273037913210864</v>
       </c>
       <c r="I8">
         <v>3731732</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f>I8/W8</f>
         <v>0.22812897817776168</v>
       </c>
       <c r="K8">
         <v>3465142</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f>K8/W8</f>
         <v>0.21183174560789614</v>
       </c>
       <c r="M8">
         <v>3034603</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f>M8/W8</f>
         <v>0.18551195036652421</v>
       </c>
       <c r="O8">
-        <v>4813000</v>
+        <v>6894130</v>
       </c>
       <c r="P8">
-        <v>5191000</v>
+        <v>2984380</v>
       </c>
       <c r="Q8">
-        <v>3103000</v>
+        <v>6479490</v>
       </c>
       <c r="R8">
-        <f t="shared" ref="R8:R17" si="9">O8/AC8</f>
-        <v>0.29422926725969789</v>
+        <f t="shared" si="0"/>
+        <v>0.39610546331114477</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S17" si="10">P8/AC8</f>
-        <v>0.31733723796906121</v>
+        <f t="shared" si="1"/>
+        <v>0.18244170800425871</v>
       </c>
       <c r="T8">
-        <f t="shared" ref="T8:T17" si="11">Q8/AC8</f>
-        <v>0.18969320928876846</v>
+        <f t="shared" si="2"/>
+        <v>0.42145331774217765</v>
       </c>
       <c r="U8">
-        <v>6894130</v>
+        <v>56.450338550110551</v>
       </c>
       <c r="V8">
-        <v>2984380</v>
+        <v>43.549661449889449</v>
       </c>
       <c r="W8">
-        <v>6479490</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="6"/>
-        <v>0.39610546331114477</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="7"/>
-        <v>0.18244170800425871</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="8"/>
-        <v>0.42145331774217765</v>
-      </c>
-      <c r="AC8">
         <v>16357992</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -1055,88 +1013,73 @@
         <v>8293326</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>C9/W9</f>
         <v>0.49447581250538314</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f>D9/W9</f>
         <v>0.50552418749461692</v>
       </c>
       <c r="G9">
         <v>3168085</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f>G9/W9</f>
         <v>0.19311234063859098</v>
       </c>
       <c r="I9">
         <v>3664878</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f>I9/W9</f>
         <v>0.22339462758571127</v>
       </c>
       <c r="K9">
         <v>3461174</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f>K9/W9</f>
         <v>0.21097773970630035</v>
       </c>
       <c r="M9">
         <v>3159434</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f>M9/W9</f>
         <v>0.19258501423830046</v>
       </c>
       <c r="O9">
-        <v>4850000</v>
+        <v>6968920</v>
       </c>
       <c r="P9">
-        <v>5127000</v>
+        <v>3001390</v>
       </c>
       <c r="Q9">
-        <v>3240000</v>
+        <v>6435090</v>
       </c>
       <c r="R9">
-        <f t="shared" si="9"/>
-        <v>0.29563438231523659</v>
+        <f t="shared" si="0"/>
+        <v>0.39225440356555791</v>
       </c>
       <c r="S9">
-        <f t="shared" si="10"/>
-        <v>0.31251906765571502</v>
+        <f t="shared" si="1"/>
+        <v>0.18295135644064495</v>
       </c>
       <c r="T9">
-        <f t="shared" si="11"/>
-        <v>0.19749595849512713</v>
+        <f t="shared" si="2"/>
+        <v>0.4247943009493399</v>
       </c>
       <c r="U9">
-        <v>6968920</v>
+        <v>56.076626286261003</v>
       </c>
       <c r="V9">
-        <v>3001390</v>
+        <v>43.923373713738997</v>
       </c>
       <c r="W9">
-        <v>6435090</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="6"/>
-        <v>0.39225440356555791</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="7"/>
-        <v>0.18295135644064495</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="8"/>
-        <v>0.4247943009493399</v>
-      </c>
-      <c r="AC9">
         <v>16405399</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1150,88 +1093,73 @@
         <v>8329391</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>C10/W10</f>
         <v>0.49475320771765402</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f>D10/W10</f>
         <v>0.50524679228234604</v>
       </c>
       <c r="G10">
         <v>3198736</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f>G10/W10</f>
         <v>0.19402992407945099</v>
       </c>
       <c r="I10">
         <v>3603410</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f>I10/W10</f>
         <v>0.21857676554962163</v>
       </c>
       <c r="K10">
         <v>3469734</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f>K10/W10</f>
         <v>0.21046820512724082</v>
       </c>
       <c r="M10">
         <v>3274007</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f>M10/W10</f>
         <v>0.19859573582990003</v>
       </c>
       <c r="O10">
-        <v>4830000</v>
+        <v>7071120</v>
       </c>
       <c r="P10">
-        <v>5116000</v>
+        <v>3013780</v>
       </c>
       <c r="Q10">
-        <v>3352000</v>
+        <v>6400880</v>
       </c>
       <c r="R10">
-        <f t="shared" si="9"/>
-        <v>0.29297964361664991</v>
+        <f t="shared" si="0"/>
+        <v>0.38826657168383893</v>
       </c>
       <c r="S10">
-        <f t="shared" si="10"/>
-        <v>0.31032792065067927</v>
+        <f t="shared" si="1"/>
+        <v>0.18281080545320644</v>
       </c>
       <c r="T10">
-        <f t="shared" si="11"/>
-        <v>0.20332665950372888</v>
+        <f t="shared" si="2"/>
+        <v>0.42892219825477546</v>
       </c>
       <c r="U10">
-        <v>7071120</v>
+        <v>55.672283094522577</v>
       </c>
       <c r="V10">
-        <v>3013780</v>
+        <v>44.327716905477423</v>
       </c>
       <c r="W10">
-        <v>6400880</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="6"/>
-        <v>0.38826657168383893</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="7"/>
-        <v>0.18281080545320644</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="8"/>
-        <v>0.42892219825477546</v>
-      </c>
-      <c r="AC10">
         <v>16485787</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -1245,88 +1173,73 @@
         <v>8371513</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>C11/W11</f>
         <v>0.49493100719403194</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f>D11/W11</f>
         <v>0.50506899280596806</v>
       </c>
       <c r="G11">
         <v>3226930</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f>G11/W11</f>
         <v>0.19468670537277583</v>
       </c>
       <c r="I11">
         <v>3543886</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f>I11/W11</f>
         <v>0.21380925200010692</v>
       </c>
       <c r="K11">
         <v>3497054</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f>K11/W11</f>
         <v>0.21098379009482299</v>
       </c>
       <c r="M11">
         <v>3376242</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
+        <f>M11/W11</f>
         <v>0.20369497681114601</v>
       </c>
       <c r="O11">
-        <v>4781000</v>
+        <v>7206750</v>
       </c>
       <c r="P11">
-        <v>5125000</v>
+        <v>3015000</v>
       </c>
       <c r="Q11">
-        <v>3446000</v>
+        <v>6353240</v>
       </c>
       <c r="R11">
-        <f t="shared" si="9"/>
-        <v>0.28844664693291805</v>
+        <f t="shared" si="0"/>
+        <v>0.38330281848150849</v>
       </c>
       <c r="S11">
-        <f t="shared" si="10"/>
-        <v>0.30920080851939025</v>
+        <f t="shared" si="1"/>
+        <v>0.18190057320701691</v>
       </c>
       <c r="T11">
-        <f t="shared" si="11"/>
-        <v>0.20790360705518418</v>
+        <f t="shared" si="2"/>
+        <v>0.43479666864333966</v>
       </c>
       <c r="U11">
-        <v>7206750</v>
+        <v>55.345795203845981</v>
       </c>
       <c r="V11">
-        <v>3015000</v>
+        <v>44.654204796154019</v>
       </c>
       <c r="W11">
-        <v>6353240</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="6"/>
-        <v>0.38330281848150849</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="7"/>
-        <v>0.18190057320701691</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="8"/>
-        <v>0.43479666864333966</v>
-      </c>
-      <c r="AC11">
         <v>16574989</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -1340,88 +1253,73 @@
         <v>8412317</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>C12/W12</f>
         <v>0.4949316451285225</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f>D12/W12</f>
         <v>0.5050683548714775</v>
       </c>
       <c r="G12">
         <v>3249228</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f>G12/W12</f>
         <v>0.19508088444150892</v>
       </c>
       <c r="I12">
         <v>3476687</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f>I12/W12</f>
         <v>0.20873732926291919</v>
       </c>
       <c r="K12">
         <v>3534552</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f>K12/W12</f>
         <v>0.21221149462718661</v>
       </c>
       <c r="M12">
         <v>3469785</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f>M12/W12</f>
         <v>0.20832293905564062</v>
       </c>
       <c r="O12">
-        <v>4819000</v>
+        <v>7303520</v>
       </c>
       <c r="P12">
-        <v>5138000</v>
+        <v>3030250</v>
       </c>
       <c r="Q12">
-        <v>3453000</v>
+        <v>6322030</v>
       </c>
       <c r="R12">
-        <f t="shared" si="9"/>
-        <v>0.28932865964580867</v>
+        <f t="shared" si="0"/>
+        <v>0.37956930195903543</v>
       </c>
       <c r="S12">
-        <f t="shared" si="10"/>
-        <v>0.30848114821750672</v>
+        <f t="shared" si="1"/>
+        <v>0.18193363164384968</v>
       </c>
       <c r="T12">
-        <f t="shared" si="11"/>
-        <v>0.20731518193753418</v>
+        <f t="shared" si="2"/>
+        <v>0.43849712643626404</v>
       </c>
       <c r="U12">
-        <v>7303520</v>
+        <v>55.087442523772047</v>
       </c>
       <c r="V12">
-        <v>3030250</v>
+        <v>44.912557476227953</v>
       </c>
       <c r="W12">
-        <v>6322030</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="6"/>
-        <v>0.37956930195903543</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="7"/>
-        <v>0.18193363164384968</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="8"/>
-        <v>0.43849712643626404</v>
-      </c>
-      <c r="AC12">
         <v>16655799</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -1435,88 +1333,73 @@
         <v>8472236</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>C13/W13</f>
         <v>0.49508637733673233</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f>D13/W13</f>
         <v>0.50491362266326767</v>
       </c>
       <c r="G13">
         <v>3271797</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f>G13/W13</f>
         <v>0.1949868813721444</v>
       </c>
       <c r="I13">
         <v>3365064</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f>I13/W13</f>
         <v>0.2005452462294188</v>
       </c>
       <c r="K13">
         <v>3603459</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f>K13/W13</f>
         <v>0.21475269784842585</v>
       </c>
       <c r="M13">
         <v>3641612</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
+        <f>M13/W13</f>
         <v>0.21702647415086496</v>
       </c>
       <c r="O13">
-        <v>4494000</v>
+        <v>7535150</v>
       </c>
       <c r="P13">
-        <v>5275000</v>
+        <v>3006640</v>
       </c>
       <c r="Q13">
-        <v>3718000</v>
+        <v>6237780</v>
       </c>
       <c r="R13">
-        <f t="shared" si="9"/>
-        <v>0.26782561536868482</v>
+        <f t="shared" si="0"/>
+        <v>0.37174839052836561</v>
       </c>
       <c r="S13">
-        <f t="shared" si="10"/>
-        <v>0.31437029841339842</v>
+        <f t="shared" si="1"/>
+        <v>0.17918451450647588</v>
       </c>
       <c r="T13">
-        <f t="shared" si="11"/>
-        <v>0.2215789136494816</v>
+        <f t="shared" si="2"/>
+        <v>0.44906679698383301</v>
       </c>
       <c r="U13">
-        <v>7535150</v>
+        <v>54.42045656698695</v>
       </c>
       <c r="V13">
-        <v>3006640</v>
+        <v>45.57954343301305</v>
       </c>
       <c r="W13">
-        <v>6237780</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="6"/>
-        <v>0.37174839052836561</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="7"/>
-        <v>0.17918451450647588</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="8"/>
-        <v>0.44906679698383301</v>
-      </c>
-      <c r="AC13">
         <v>16779575</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -1530,88 +1413,73 @@
         <v>8494904</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>C14/W14</f>
         <v>0.49523096311436565</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f>D14/W14</f>
         <v>0.50476903688563435</v>
       </c>
       <c r="G14">
         <v>3292799</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f>G14/W14</f>
         <v>0.19565883026906247</v>
       </c>
       <c r="I14">
         <v>3308554</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f>I14/W14</f>
         <v>0.19659499578383852</v>
       </c>
       <c r="K14">
         <v>3628031</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f>K14/W14</f>
         <v>0.21557838836804097</v>
       </c>
       <c r="M14">
         <v>3729913</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
+        <f>M14/W14</f>
         <v>0.22163223889018721</v>
       </c>
       <c r="O14">
-        <v>4546000</v>
+        <v>7599570</v>
       </c>
       <c r="P14">
-        <v>5289000</v>
+        <v>3015650</v>
       </c>
       <c r="Q14">
-        <v>3810000</v>
+        <v>6214070</v>
       </c>
       <c r="R14">
-        <f t="shared" si="9"/>
-        <v>0.27012430531081855</v>
+        <f t="shared" si="0"/>
+        <v>0.36924138625226532</v>
       </c>
       <c r="S14">
-        <f t="shared" si="10"/>
-        <v>0.31427352635040018</v>
+        <f t="shared" si="1"/>
+        <v>0.1791905766191311</v>
       </c>
       <c r="T14">
-        <f t="shared" si="11"/>
-        <v>0.22639102578843348</v>
+        <f t="shared" si="2"/>
+        <v>0.45156809654882035</v>
       </c>
       <c r="U14">
-        <v>7599570</v>
+        <v>54.048774455058677</v>
       </c>
       <c r="V14">
-        <v>3015650</v>
+        <v>45.951225544941323</v>
       </c>
       <c r="W14">
-        <v>6214070</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="6"/>
-        <v>0.36924138625226532</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="7"/>
-        <v>0.1791905766191311</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="8"/>
-        <v>0.45156809654882035</v>
-      </c>
-      <c r="AC14">
         <v>16829289</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2017</v>
       </c>
@@ -1625,88 +1493,73 @@
         <v>8606405</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>C15/W15</f>
         <v>0.49615657447554246</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f>D15/W15</f>
         <v>0.50384342552445749</v>
       </c>
       <c r="G15">
         <v>3405654</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f>G15/W15</f>
         <v>0.19937667092253628</v>
       </c>
       <c r="I15">
         <v>3159640</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f>I15/W15</f>
         <v>0.18497431169275638</v>
       </c>
       <c r="K15">
         <v>3729288</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f>K15/W15</f>
         <v>0.21832312570547785</v>
       </c>
       <c r="M15">
         <v>4002932</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
+        <f>M15/W15</f>
         <v>0.23434302371564758</v>
       </c>
       <c r="O15">
-        <v>4442000</v>
+        <v>8203440</v>
       </c>
       <c r="P15">
-        <v>5322000</v>
+        <v>2961350</v>
       </c>
       <c r="Q15">
-        <v>4156000</v>
+        <v>5916720</v>
       </c>
       <c r="R15">
-        <f t="shared" si="9"/>
-        <v>0.26004731315568352</v>
+        <f t="shared" si="0"/>
+        <v>0.34638161609511386</v>
       </c>
       <c r="S15">
-        <f t="shared" si="10"/>
-        <v>0.31156501589701657</v>
+        <f t="shared" si="1"/>
+        <v>0.17336585115118941</v>
       </c>
       <c r="T15">
-        <f t="shared" si="11"/>
-        <v>0.24330405976475025</v>
+        <f t="shared" si="2"/>
+        <v>0.48025270838222878</v>
       </c>
       <c r="U15">
-        <v>8203440</v>
+        <v>52.711498405849085</v>
       </c>
       <c r="V15">
-        <v>2961350</v>
+        <v>47.288501594150915</v>
       </c>
       <c r="W15">
-        <v>5916720</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="6"/>
-        <v>0.34638161609511386</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="7"/>
-        <v>0.17336585115118941</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="8"/>
-        <v>0.48025270838222878</v>
-      </c>
-      <c r="AC15">
         <v>17081507</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -1720,88 +1573,73 @@
         <v>8701077</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>C16/W16</f>
         <v>0.4965284727380479</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f>D16/W16</f>
         <v>0.5034715272619521</v>
       </c>
       <c r="G16">
         <v>3472436</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f>G16/W16</f>
         <v>0.20092600677357342</v>
       </c>
       <c r="I16">
         <v>3135601</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f>I16/W16</f>
         <v>0.18143568024442311</v>
       </c>
       <c r="K16">
         <v>3753725</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f>K16/W16</f>
         <v>0.21720226802628814</v>
       </c>
       <c r="M16">
         <v>4178393</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
+        <f>M16/W16</f>
         <v>0.24177488662732785</v>
       </c>
       <c r="O16">
-        <v>4395000</v>
+        <v>8418190</v>
       </c>
       <c r="P16">
-        <v>5323000</v>
+        <v>2955240</v>
       </c>
       <c r="Q16">
-        <v>4415000</v>
+        <v>5908730</v>
       </c>
       <c r="R16">
-        <f t="shared" si="9"/>
-        <v>0.25430844507137212</v>
+        <f t="shared" si="0"/>
+        <v>0.3418975969616766</v>
       </c>
       <c r="S16">
-        <f t="shared" si="10"/>
-        <v>0.30800542732990077</v>
+        <f t="shared" si="1"/>
+        <v>0.17099942871734283</v>
       </c>
       <c r="T16">
-        <f t="shared" si="11"/>
-        <v>0.25546570762004733</v>
+        <f t="shared" si="2"/>
+        <v>0.48710280073159823</v>
       </c>
       <c r="U16">
-        <v>8418190</v>
+        <v>51.97889374726995</v>
       </c>
       <c r="V16">
-        <v>2955240</v>
+        <v>48.02110625273005</v>
       </c>
       <c r="W16">
-        <v>5908730</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="6"/>
-        <v>0.3418975969616766</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="7"/>
-        <v>0.17099942871734283</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="8"/>
-        <v>0.48710280073159823</v>
-      </c>
-      <c r="AC16">
         <v>17282163</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -1815,88 +1653,73 @@
         <v>8759554</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>C17/W17</f>
         <v>0.49679671246758239</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f>D17/W17</f>
         <v>0.50320328753241761</v>
       </c>
       <c r="G17">
         <v>3506775</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f>G17/W17</f>
         <v>0.20145097668631232</v>
       </c>
       <c r="I17">
         <v>3160047</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f>I17/W17</f>
         <v>0.18153276287319578</v>
       </c>
       <c r="K17">
         <v>3740474</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f>K17/W17</f>
         <v>0.21487610142360355</v>
       </c>
       <c r="M17">
         <v>4271792</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
+        <f>M17/W17</f>
         <v>0.24539831343635549</v>
       </c>
       <c r="O17">
-        <v>4236000</v>
+        <v>8535720</v>
       </c>
       <c r="P17">
-        <v>5314000</v>
+        <v>2971100</v>
       </c>
       <c r="Q17">
-        <v>4686000</v>
+        <v>5900770</v>
       </c>
       <c r="R17">
-        <f t="shared" si="9"/>
-        <v>0.24334219824289238</v>
+        <f t="shared" si="0"/>
+        <v>0.33897694596924272</v>
       </c>
       <c r="S17">
-        <f t="shared" si="10"/>
-        <v>0.30526922602991741</v>
+        <f t="shared" si="1"/>
+        <v>0.17067847148240264</v>
       </c>
       <c r="T17">
-        <f t="shared" si="11"/>
-        <v>0.26919299833951693</v>
+        <f t="shared" si="2"/>
+        <v>0.49034486977946684</v>
       </c>
       <c r="U17">
-        <v>8535720</v>
+        <v>51.658322191159776</v>
       </c>
       <c r="V17">
-        <v>2971100</v>
+        <v>48.341677808840224</v>
       </c>
       <c r="W17">
-        <v>5900770</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="6"/>
-        <v>0.33897694596924272</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="7"/>
-        <v>0.17067847148240264</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="8"/>
-        <v>0.49034486977946684</v>
-      </c>
-      <c r="AC17">
         <v>17407585</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1910,67 +1733,73 @@
         <v>8788879</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>C18/W18</f>
         <v>0.49707180058384881</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f>D18/W18</f>
         <v>0.50292819941615119</v>
       </c>
       <c r="G18">
         <v>3505536</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f>G18/W18</f>
         <v>0.20059815460748714</v>
       </c>
       <c r="I18">
         <v>3186391</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f>I18/W18</f>
         <v>0.18233564124228238</v>
       </c>
       <c r="K18">
         <v>3714479</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f>K18/W18</f>
         <v>0.21255455163725726</v>
       </c>
       <c r="M18">
         <v>4354742</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f>M18/W18</f>
         <v>0.24919247983524281</v>
       </c>
+      <c r="O18">
+        <v>8610860</v>
+      </c>
+      <c r="P18">
+        <v>2960450</v>
+      </c>
+      <c r="Q18">
+        <v>5904110</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>0.33785234857083507</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>0.16940656344928004</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>0.49274137409612306</v>
+      </c>
       <c r="U18">
-        <v>8610860</v>
+        <v>51.36706384369127</v>
       </c>
       <c r="V18">
-        <v>2960450</v>
+        <v>48.63293615630873</v>
       </c>
       <c r="W18">
-        <v>5904110</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="6"/>
-        <v>0.33785234857083507</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="7"/>
-        <v>0.16940656344928004</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="8"/>
-        <v>0.49274137409612306</v>
-      </c>
-      <c r="AC18">
         <v>17475415</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -1984,63 +1813,69 @@
         <v>8845204</v>
       </c>
       <c r="E19">
-        <f>C19/AC19</f>
+        <f>C19/W19</f>
         <v>0.49716508840594609</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f>D19/W19</f>
         <v>0.50283491159405391</v>
       </c>
       <c r="G19">
         <v>3527921</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f>G19/W19</f>
         <v>0.20055635168457464</v>
       </c>
       <c r="I19">
         <v>3234546</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f>I19/W19</f>
         <v>0.18387847832078275</v>
       </c>
       <c r="K19">
         <v>3675784</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f>K19/W19</f>
         <v>0.20896211355654862</v>
       </c>
       <c r="M19">
         <v>4437365</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
+        <f>M19/W19</f>
         <v>0.2522567074185682</v>
       </c>
+      <c r="O19">
+        <v>8705630</v>
+      </c>
+      <c r="P19">
+        <v>2976730</v>
+      </c>
+      <c r="Q19">
+        <v>5908320</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0.3358780153481345</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0.16922207406288969</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>0.49490036537546717</v>
+      </c>
       <c r="U19">
-        <v>8705630</v>
+        <v>51.050244447739118</v>
       </c>
       <c r="V19">
-        <v>2976730</v>
+        <v>48.949755552260882</v>
       </c>
       <c r="W19">
-        <v>5908320</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="6"/>
-        <v>0.3358780153481345</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="7"/>
-        <v>0.16922207406288969</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="8"/>
-        <v>0.49490036537546717</v>
-      </c>
-      <c r="AC19">
         <v>17590672</v>
       </c>
     </row>

--- a/data/all_waves/weigh_data.xlsx
+++ b/data/all_waves/weigh_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anuschka/Documents/climatechange/climatechange/data/all_waves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4EA3B-3894-9148-9324-956F074CF4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9127283F-11D7-1440-9FC1-7025A53D1BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15700" xr2:uid="{589232E4-3D71-D747-A62A-14D4E3B0C8AE}"/>
   </bookViews>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9464F51-D6CA-254C-B404-8BB877CB06E8}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,39 +555,39 @@
         <v>7441337</v>
       </c>
       <c r="E2">
-        <f>C2/W2</f>
+        <f t="shared" ref="E2:E19" si="0">C2/W2</f>
         <v>0.49430082933354574</v>
       </c>
       <c r="F2" s="1">
-        <f>D2/W2</f>
+        <f t="shared" ref="F2:F19" si="1">D2/W2</f>
         <v>0.50569917066645431</v>
       </c>
       <c r="G2">
         <v>3974318</v>
       </c>
       <c r="H2">
-        <f>G2/W2</f>
+        <f t="shared" ref="H2:H19" si="2">G2/W2</f>
         <v>0.27008712501056747</v>
       </c>
       <c r="I2">
         <v>3362751</v>
       </c>
       <c r="J2">
-        <f>I2/W2</f>
+        <f t="shared" ref="J2:J19" si="3">I2/W2</f>
         <v>0.22852618983091208</v>
       </c>
       <c r="K2">
         <v>2282716</v>
       </c>
       <c r="L2">
-        <f>K2/W2</f>
+        <f t="shared" ref="L2:L19" si="4">K2/W2</f>
         <v>0.15512905652130066</v>
       </c>
       <c r="M2">
         <v>2367802</v>
       </c>
       <c r="N2">
-        <f>M2/W2</f>
+        <f t="shared" ref="N2:N19" si="5">M2/W2</f>
         <v>0.16091133995172799</v>
       </c>
       <c r="W2">
@@ -608,39 +608,39 @@
         <v>7648728</v>
       </c>
       <c r="E3">
-        <f>C3/W3</f>
+        <f t="shared" si="0"/>
         <v>0.49443769147638827</v>
       </c>
       <c r="F3" s="1">
-        <f>D3/W3</f>
+        <f t="shared" si="1"/>
         <v>0.50556230852361173</v>
       </c>
       <c r="G3">
         <v>3828528</v>
       </c>
       <c r="H3">
-        <f>G3/W3</f>
+        <f t="shared" si="2"/>
         <v>0.25305638452920354</v>
       </c>
       <c r="I3">
         <v>3605015</v>
       </c>
       <c r="J3">
-        <f>I3/W3</f>
+        <f t="shared" si="3"/>
         <v>0.23828271912169555</v>
       </c>
       <c r="K3">
         <v>2429065</v>
       </c>
       <c r="L3">
-        <f>K3/W3</f>
+        <f t="shared" si="4"/>
         <v>0.16055528565715854</v>
       </c>
       <c r="M3">
         <v>2491681</v>
       </c>
       <c r="N3">
-        <f>M3/W3</f>
+        <f t="shared" si="5"/>
         <v>0.16469405088851655</v>
       </c>
       <c r="W3">
@@ -661,39 +661,39 @@
         <v>7703914</v>
       </c>
       <c r="E4">
-        <f>C4/W4</f>
+        <f t="shared" si="0"/>
         <v>0.49446669775319962</v>
       </c>
       <c r="F4" s="1">
-        <f>D4/W4</f>
+        <f t="shared" si="1"/>
         <v>0.50553330224680038</v>
       </c>
       <c r="G4">
         <v>3771688</v>
       </c>
       <c r="H4">
-        <f>G4/W4</f>
+        <f t="shared" si="2"/>
         <v>0.2474993736540452</v>
       </c>
       <c r="I4">
         <v>3605434</v>
       </c>
       <c r="J4">
-        <f>I4/W4</f>
+        <f t="shared" si="3"/>
         <v>0.23658973296598204</v>
       </c>
       <c r="K4">
         <v>2537408</v>
       </c>
       <c r="L4">
-        <f>K4/W4</f>
+        <f t="shared" si="4"/>
         <v>0.16650552503408647</v>
       </c>
       <c r="M4">
         <v>2523208</v>
       </c>
       <c r="N4">
-        <f>M4/W4</f>
+        <f t="shared" si="5"/>
         <v>0.16557371648950711</v>
       </c>
       <c r="W4">
@@ -714,39 +714,39 @@
         <v>7796640</v>
       </c>
       <c r="E5">
-        <f>C5/W5</f>
+        <f t="shared" si="0"/>
         <v>0.49451644638184267</v>
       </c>
       <c r="F5" s="1">
-        <f>D5/W5</f>
+        <f t="shared" si="1"/>
         <v>0.50548355361815733</v>
       </c>
       <c r="G5">
         <v>3638804</v>
       </c>
       <c r="H5">
-        <f>G5/W5</f>
+        <f t="shared" si="2"/>
         <v>0.23591644308830026</v>
       </c>
       <c r="I5">
         <v>3640905</v>
       </c>
       <c r="J5">
-        <f>I5/W5</f>
+        <f t="shared" si="3"/>
         <v>0.23605265829717892</v>
       </c>
       <c r="K5">
         <v>2719560</v>
       </c>
       <c r="L5">
-        <f>K5/W5</f>
+        <f t="shared" si="4"/>
         <v>0.17631862611045218</v>
       </c>
       <c r="M5">
         <v>2575811</v>
       </c>
       <c r="N5">
-        <f>M5/W5</f>
+        <f t="shared" si="5"/>
         <v>0.16699887358256113</v>
       </c>
       <c r="U5">
@@ -773,39 +773,39 @@
         <v>8017633</v>
       </c>
       <c r="E6">
-        <f>C6/W6</f>
+        <f t="shared" si="0"/>
         <v>0.49460046205390207</v>
       </c>
       <c r="F6" s="1">
-        <f>D6/W6</f>
+        <f t="shared" si="1"/>
         <v>0.50539953794609793</v>
       </c>
       <c r="G6">
         <v>3330583</v>
       </c>
       <c r="H6">
-        <f>G6/W6</f>
+        <f t="shared" si="2"/>
         <v>0.2099466400234494</v>
       </c>
       <c r="I6">
         <v>3803904</v>
       </c>
       <c r="J6">
-        <f>I6/W6</f>
+        <f t="shared" si="3"/>
         <v>0.2397829040056228</v>
       </c>
       <c r="K6">
         <v>3063307</v>
       </c>
       <c r="L6">
-        <f>K6/W6</f>
+        <f t="shared" si="4"/>
         <v>0.19309862928211449</v>
       </c>
       <c r="M6">
         <v>2708223</v>
       </c>
       <c r="N6">
-        <f>M6/W6</f>
+        <f t="shared" si="5"/>
         <v>0.17071555318820344</v>
       </c>
       <c r="O6">
@@ -853,39 +853,39 @@
         <v>8212118</v>
       </c>
       <c r="E7">
-        <f>C7/W7</f>
+        <f t="shared" si="0"/>
         <v>0.49488855723743191</v>
       </c>
       <c r="F7" s="1">
-        <f>D7/W7</f>
+        <f t="shared" si="1"/>
         <v>0.50511144276256803</v>
       </c>
       <c r="G7">
         <v>3171481</v>
       </c>
       <c r="H7">
-        <f>G7/W7</f>
+        <f t="shared" si="2"/>
         <v>0.19507164212741124</v>
       </c>
       <c r="I7">
         <v>3887631</v>
       </c>
       <c r="J7">
-        <f>I7/W7</f>
+        <f t="shared" si="3"/>
         <v>0.23912063895556362</v>
       </c>
       <c r="K7">
         <v>3312214</v>
       </c>
       <c r="L7">
-        <f>K7/W7</f>
+        <f t="shared" si="4"/>
         <v>0.20372785586841016</v>
       </c>
       <c r="M7">
         <v>2857303</v>
       </c>
       <c r="N7">
-        <f>M7/W7</f>
+        <f t="shared" si="5"/>
         <v>0.17574716300226251</v>
       </c>
       <c r="O7">
@@ -898,15 +898,15 @@
         <v>6597240</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R19" si="0">Q7/W7</f>
+        <f t="shared" ref="R7:R19" si="6">Q7/W7</f>
         <v>0.4057834306144803</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7:S19" si="1">P7/W7</f>
+        <f t="shared" ref="S7:S19" si="7">P7/W7</f>
         <v>0.17826204303202256</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7:T19" si="2">O7/W7</f>
+        <f t="shared" ref="T7:T19" si="8">O7/W7</f>
         <v>0.4159544033373781</v>
       </c>
       <c r="U7">
@@ -933,39 +933,39 @@
         <v>8269478</v>
       </c>
       <c r="E8">
-        <f>C8/W8</f>
+        <f t="shared" si="0"/>
         <v>0.49446863649279205</v>
       </c>
       <c r="F8" s="1">
-        <f>D8/W8</f>
+        <f t="shared" si="1"/>
         <v>0.50553136350720795</v>
       </c>
       <c r="G8">
         <v>3152682</v>
       </c>
       <c r="H8">
-        <f>G8/W8</f>
+        <f t="shared" si="2"/>
         <v>0.19273037913210864</v>
       </c>
       <c r="I8">
         <v>3731732</v>
       </c>
       <c r="J8">
-        <f>I8/W8</f>
+        <f t="shared" si="3"/>
         <v>0.22812897817776168</v>
       </c>
       <c r="K8">
         <v>3465142</v>
       </c>
       <c r="L8">
-        <f>K8/W8</f>
+        <f t="shared" si="4"/>
         <v>0.21183174560789614</v>
       </c>
       <c r="M8">
         <v>3034603</v>
       </c>
       <c r="N8">
-        <f>M8/W8</f>
+        <f t="shared" si="5"/>
         <v>0.18551195036652421</v>
       </c>
       <c r="O8">
@@ -978,15 +978,15 @@
         <v>6479490</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.39610546331114477</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.18244170800425871</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.42145331774217765</v>
       </c>
       <c r="U8">
@@ -1013,39 +1013,39 @@
         <v>8293326</v>
       </c>
       <c r="E9">
-        <f>C9/W9</f>
+        <f t="shared" si="0"/>
         <v>0.49447581250538314</v>
       </c>
       <c r="F9" s="1">
-        <f>D9/W9</f>
+        <f t="shared" si="1"/>
         <v>0.50552418749461692</v>
       </c>
       <c r="G9">
         <v>3168085</v>
       </c>
       <c r="H9">
-        <f>G9/W9</f>
+        <f t="shared" si="2"/>
         <v>0.19311234063859098</v>
       </c>
       <c r="I9">
         <v>3664878</v>
       </c>
       <c r="J9">
-        <f>I9/W9</f>
+        <f t="shared" si="3"/>
         <v>0.22339462758571127</v>
       </c>
       <c r="K9">
         <v>3461174</v>
       </c>
       <c r="L9">
-        <f>K9/W9</f>
+        <f t="shared" si="4"/>
         <v>0.21097773970630035</v>
       </c>
       <c r="M9">
         <v>3159434</v>
       </c>
       <c r="N9">
-        <f>M9/W9</f>
+        <f t="shared" si="5"/>
         <v>0.19258501423830046</v>
       </c>
       <c r="O9">
@@ -1058,15 +1058,15 @@
         <v>6435090</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.39225440356555791</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.18295135644064495</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.4247943009493399</v>
       </c>
       <c r="U9">
@@ -1093,39 +1093,39 @@
         <v>8329391</v>
       </c>
       <c r="E10">
-        <f>C10/W10</f>
+        <f t="shared" si="0"/>
         <v>0.49475320771765402</v>
       </c>
       <c r="F10" s="1">
-        <f>D10/W10</f>
+        <f t="shared" si="1"/>
         <v>0.50524679228234604</v>
       </c>
       <c r="G10">
         <v>3198736</v>
       </c>
       <c r="H10">
-        <f>G10/W10</f>
+        <f t="shared" si="2"/>
         <v>0.19402992407945099</v>
       </c>
       <c r="I10">
         <v>3603410</v>
       </c>
       <c r="J10">
-        <f>I10/W10</f>
+        <f t="shared" si="3"/>
         <v>0.21857676554962163</v>
       </c>
       <c r="K10">
         <v>3469734</v>
       </c>
       <c r="L10">
-        <f>K10/W10</f>
+        <f t="shared" si="4"/>
         <v>0.21046820512724082</v>
       </c>
       <c r="M10">
         <v>3274007</v>
       </c>
       <c r="N10">
-        <f>M10/W10</f>
+        <f t="shared" si="5"/>
         <v>0.19859573582990003</v>
       </c>
       <c r="O10">
@@ -1138,15 +1138,15 @@
         <v>6400880</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.38826657168383893</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.18281080545320644</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.42892219825477546</v>
       </c>
       <c r="U10">
@@ -1173,39 +1173,39 @@
         <v>8371513</v>
       </c>
       <c r="E11">
-        <f>C11/W11</f>
+        <f t="shared" si="0"/>
         <v>0.49493100719403194</v>
       </c>
       <c r="F11" s="1">
-        <f>D11/W11</f>
+        <f t="shared" si="1"/>
         <v>0.50506899280596806</v>
       </c>
       <c r="G11">
         <v>3226930</v>
       </c>
       <c r="H11">
-        <f>G11/W11</f>
+        <f t="shared" si="2"/>
         <v>0.19468670537277583</v>
       </c>
       <c r="I11">
         <v>3543886</v>
       </c>
       <c r="J11">
-        <f>I11/W11</f>
+        <f t="shared" si="3"/>
         <v>0.21380925200010692</v>
       </c>
       <c r="K11">
         <v>3497054</v>
       </c>
       <c r="L11">
-        <f>K11/W11</f>
+        <f t="shared" si="4"/>
         <v>0.21098379009482299</v>
       </c>
       <c r="M11">
         <v>3376242</v>
       </c>
       <c r="N11">
-        <f>M11/W11</f>
+        <f t="shared" si="5"/>
         <v>0.20369497681114601</v>
       </c>
       <c r="O11">
@@ -1218,15 +1218,15 @@
         <v>6353240</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.38330281848150849</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.18190057320701691</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.43479666864333966</v>
       </c>
       <c r="U11">
@@ -1253,39 +1253,39 @@
         <v>8412317</v>
       </c>
       <c r="E12">
-        <f>C12/W12</f>
+        <f t="shared" si="0"/>
         <v>0.4949316451285225</v>
       </c>
       <c r="F12" s="1">
-        <f>D12/W12</f>
+        <f t="shared" si="1"/>
         <v>0.5050683548714775</v>
       </c>
       <c r="G12">
         <v>3249228</v>
       </c>
       <c r="H12">
-        <f>G12/W12</f>
+        <f t="shared" si="2"/>
         <v>0.19508088444150892</v>
       </c>
       <c r="I12">
         <v>3476687</v>
       </c>
       <c r="J12">
-        <f>I12/W12</f>
+        <f t="shared" si="3"/>
         <v>0.20873732926291919</v>
       </c>
       <c r="K12">
         <v>3534552</v>
       </c>
       <c r="L12">
-        <f>K12/W12</f>
+        <f t="shared" si="4"/>
         <v>0.21221149462718661</v>
       </c>
       <c r="M12">
         <v>3469785</v>
       </c>
       <c r="N12">
-        <f>M12/W12</f>
+        <f t="shared" si="5"/>
         <v>0.20832293905564062</v>
       </c>
       <c r="O12">
@@ -1298,15 +1298,15 @@
         <v>6322030</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.37956930195903543</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.18193363164384968</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.43849712643626404</v>
       </c>
       <c r="U12">
@@ -1333,39 +1333,39 @@
         <v>8472236</v>
       </c>
       <c r="E13">
-        <f>C13/W13</f>
+        <f t="shared" si="0"/>
         <v>0.49508637733673233</v>
       </c>
       <c r="F13" s="1">
-        <f>D13/W13</f>
+        <f t="shared" si="1"/>
         <v>0.50491362266326767</v>
       </c>
       <c r="G13">
         <v>3271797</v>
       </c>
       <c r="H13">
-        <f>G13/W13</f>
+        <f t="shared" si="2"/>
         <v>0.1949868813721444</v>
       </c>
       <c r="I13">
         <v>3365064</v>
       </c>
       <c r="J13">
-        <f>I13/W13</f>
+        <f t="shared" si="3"/>
         <v>0.2005452462294188</v>
       </c>
       <c r="K13">
         <v>3603459</v>
       </c>
       <c r="L13">
-        <f>K13/W13</f>
+        <f t="shared" si="4"/>
         <v>0.21475269784842585</v>
       </c>
       <c r="M13">
         <v>3641612</v>
       </c>
       <c r="N13">
-        <f>M13/W13</f>
+        <f t="shared" si="5"/>
         <v>0.21702647415086496</v>
       </c>
       <c r="O13">
@@ -1378,15 +1378,15 @@
         <v>6237780</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.37174839052836561</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.17918451450647588</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.44906679698383301</v>
       </c>
       <c r="U13">
@@ -1413,39 +1413,39 @@
         <v>8494904</v>
       </c>
       <c r="E14">
-        <f>C14/W14</f>
+        <f t="shared" si="0"/>
         <v>0.49523096311436565</v>
       </c>
       <c r="F14" s="1">
-        <f>D14/W14</f>
+        <f t="shared" si="1"/>
         <v>0.50476903688563435</v>
       </c>
       <c r="G14">
         <v>3292799</v>
       </c>
       <c r="H14">
-        <f>G14/W14</f>
+        <f t="shared" si="2"/>
         <v>0.19565883026906247</v>
       </c>
       <c r="I14">
         <v>3308554</v>
       </c>
       <c r="J14">
-        <f>I14/W14</f>
+        <f t="shared" si="3"/>
         <v>0.19659499578383852</v>
       </c>
       <c r="K14">
         <v>3628031</v>
       </c>
       <c r="L14">
-        <f>K14/W14</f>
+        <f t="shared" si="4"/>
         <v>0.21557838836804097</v>
       </c>
       <c r="M14">
         <v>3729913</v>
       </c>
       <c r="N14">
-        <f>M14/W14</f>
+        <f t="shared" si="5"/>
         <v>0.22163223889018721</v>
       </c>
       <c r="O14">
@@ -1458,15 +1458,15 @@
         <v>6214070</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.36924138625226532</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.1791905766191311</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.45156809654882035</v>
       </c>
       <c r="U14">
@@ -1493,39 +1493,39 @@
         <v>8606405</v>
       </c>
       <c r="E15">
-        <f>C15/W15</f>
+        <f t="shared" si="0"/>
         <v>0.49615657447554246</v>
       </c>
       <c r="F15" s="1">
-        <f>D15/W15</f>
+        <f t="shared" si="1"/>
         <v>0.50384342552445749</v>
       </c>
       <c r="G15">
         <v>3405654</v>
       </c>
       <c r="H15">
-        <f>G15/W15</f>
+        <f t="shared" si="2"/>
         <v>0.19937667092253628</v>
       </c>
       <c r="I15">
         <v>3159640</v>
       </c>
       <c r="J15">
-        <f>I15/W15</f>
+        <f t="shared" si="3"/>
         <v>0.18497431169275638</v>
       </c>
       <c r="K15">
         <v>3729288</v>
       </c>
       <c r="L15">
-        <f>K15/W15</f>
+        <f t="shared" si="4"/>
         <v>0.21832312570547785</v>
       </c>
       <c r="M15">
         <v>4002932</v>
       </c>
       <c r="N15">
-        <f>M15/W15</f>
+        <f t="shared" si="5"/>
         <v>0.23434302371564758</v>
       </c>
       <c r="O15">
@@ -1538,15 +1538,15 @@
         <v>5916720</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.34638161609511386</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.17336585115118941</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.48025270838222878</v>
       </c>
       <c r="U15">
@@ -1573,39 +1573,39 @@
         <v>8701077</v>
       </c>
       <c r="E16">
-        <f>C16/W16</f>
+        <f t="shared" si="0"/>
         <v>0.4965284727380479</v>
       </c>
       <c r="F16" s="1">
-        <f>D16/W16</f>
+        <f t="shared" si="1"/>
         <v>0.5034715272619521</v>
       </c>
       <c r="G16">
         <v>3472436</v>
       </c>
       <c r="H16">
-        <f>G16/W16</f>
+        <f t="shared" si="2"/>
         <v>0.20092600677357342</v>
       </c>
       <c r="I16">
         <v>3135601</v>
       </c>
       <c r="J16">
-        <f>I16/W16</f>
+        <f t="shared" si="3"/>
         <v>0.18143568024442311</v>
       </c>
       <c r="K16">
         <v>3753725</v>
       </c>
       <c r="L16">
-        <f>K16/W16</f>
+        <f t="shared" si="4"/>
         <v>0.21720226802628814</v>
       </c>
       <c r="M16">
         <v>4178393</v>
       </c>
       <c r="N16">
-        <f>M16/W16</f>
+        <f t="shared" si="5"/>
         <v>0.24177488662732785</v>
       </c>
       <c r="O16">
@@ -1618,15 +1618,15 @@
         <v>5908730</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.3418975969616766</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.17099942871734283</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.48710280073159823</v>
       </c>
       <c r="U16">
@@ -1653,39 +1653,39 @@
         <v>8759554</v>
       </c>
       <c r="E17">
-        <f>C17/W17</f>
+        <f t="shared" si="0"/>
         <v>0.49679671246758239</v>
       </c>
       <c r="F17" s="1">
-        <f>D17/W17</f>
+        <f t="shared" si="1"/>
         <v>0.50320328753241761</v>
       </c>
       <c r="G17">
         <v>3506775</v>
       </c>
       <c r="H17">
-        <f>G17/W17</f>
+        <f t="shared" si="2"/>
         <v>0.20145097668631232</v>
       </c>
       <c r="I17">
         <v>3160047</v>
       </c>
       <c r="J17">
-        <f>I17/W17</f>
+        <f t="shared" si="3"/>
         <v>0.18153276287319578</v>
       </c>
       <c r="K17">
         <v>3740474</v>
       </c>
       <c r="L17">
-        <f>K17/W17</f>
+        <f t="shared" si="4"/>
         <v>0.21487610142360355</v>
       </c>
       <c r="M17">
         <v>4271792</v>
       </c>
       <c r="N17">
-        <f>M17/W17</f>
+        <f t="shared" si="5"/>
         <v>0.24539831343635549</v>
       </c>
       <c r="O17">
@@ -1698,15 +1698,15 @@
         <v>5900770</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.33897694596924272</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.17067847148240264</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.49034486977946684</v>
       </c>
       <c r="U17">
@@ -1733,39 +1733,39 @@
         <v>8788879</v>
       </c>
       <c r="E18">
-        <f>C18/W18</f>
+        <f t="shared" si="0"/>
         <v>0.49707180058384881</v>
       </c>
       <c r="F18" s="1">
-        <f>D18/W18</f>
+        <f t="shared" si="1"/>
         <v>0.50292819941615119</v>
       </c>
       <c r="G18">
         <v>3505536</v>
       </c>
       <c r="H18">
-        <f>G18/W18</f>
+        <f t="shared" si="2"/>
         <v>0.20059815460748714</v>
       </c>
       <c r="I18">
         <v>3186391</v>
       </c>
       <c r="J18">
-        <f>I18/W18</f>
+        <f t="shared" si="3"/>
         <v>0.18233564124228238</v>
       </c>
       <c r="K18">
         <v>3714479</v>
       </c>
       <c r="L18">
-        <f>K18/W18</f>
+        <f t="shared" si="4"/>
         <v>0.21255455163725726</v>
       </c>
       <c r="M18">
         <v>4354742</v>
       </c>
       <c r="N18">
-        <f>M18/W18</f>
+        <f t="shared" si="5"/>
         <v>0.24919247983524281</v>
       </c>
       <c r="O18">
@@ -1778,15 +1778,15 @@
         <v>5904110</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.33785234857083507</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.16940656344928004</v>
       </c>
       <c r="T18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.49274137409612306</v>
       </c>
       <c r="U18">
@@ -1813,39 +1813,39 @@
         <v>8845204</v>
       </c>
       <c r="E19">
-        <f>C19/W19</f>
+        <f t="shared" si="0"/>
         <v>0.49716508840594609</v>
       </c>
       <c r="F19" s="1">
-        <f>D19/W19</f>
+        <f t="shared" si="1"/>
         <v>0.50283491159405391</v>
       </c>
       <c r="G19">
         <v>3527921</v>
       </c>
       <c r="H19">
-        <f>G19/W19</f>
+        <f t="shared" si="2"/>
         <v>0.20055635168457464</v>
       </c>
       <c r="I19">
         <v>3234546</v>
       </c>
       <c r="J19">
-        <f>I19/W19</f>
+        <f t="shared" si="3"/>
         <v>0.18387847832078275</v>
       </c>
       <c r="K19">
         <v>3675784</v>
       </c>
       <c r="L19">
-        <f>K19/W19</f>
+        <f t="shared" si="4"/>
         <v>0.20896211355654862</v>
       </c>
       <c r="M19">
         <v>4437365</v>
       </c>
       <c r="N19">
-        <f>M19/W19</f>
+        <f t="shared" si="5"/>
         <v>0.2522567074185682</v>
       </c>
       <c r="O19">
@@ -1858,15 +1858,15 @@
         <v>5908320</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.3358780153481345</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.16922207406288969</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.49490036537546717</v>
       </c>
       <c r="U19">

--- a/data/all_waves/weigh_data.xlsx
+++ b/data/all_waves/weigh_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anuschka/Documents/climatechange/climatechange/data/all_waves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9127283F-11D7-1440-9FC1-7025A53D1BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31B10C-BACD-FA42-BCE2-0FE8C78662B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15700" xr2:uid="{589232E4-3D71-D747-A62A-14D4E3B0C8AE}"/>
   </bookViews>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9464F51-D6CA-254C-B404-8BB877CB06E8}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/all_waves/weigh_data.xlsx
+++ b/data/all_waves/weigh_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anuschka/Documents/climatechange/climatechange/data/all_waves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31B10C-BACD-FA42-BCE2-0FE8C78662B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275AA801-DC53-2749-9E6F-2791D2446C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15700" xr2:uid="{589232E4-3D71-D747-A62A-14D4E3B0C8AE}"/>
   </bookViews>
@@ -461,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9464F51-D6CA-254C-B404-8BB877CB06E8}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>

--- a/data/all_waves/weigh_data.xlsx
+++ b/data/all_waves/weigh_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anuschka/Documents/climatechange/climatechange/data/all_waves/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\climatechange\data\all_waves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275AA801-DC53-2749-9E6F-2791D2446C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C173D-1BB5-4A65-A2FD-8D1AFEED75B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15700" xr2:uid="{589232E4-3D71-D747-A62A-14D4E3B0C8AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{589232E4-3D71-D747-A62A-14D4E3B0C8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="educ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>male_perc</t>
   </si>
@@ -106,6 +107,15 @@
   <si>
     <t>not_living_together_perc</t>
   </si>
+  <si>
+    <t>educ low</t>
+  </si>
+  <si>
+    <t>educ mid</t>
+  </si>
+  <si>
+    <t>educ high</t>
+  </si>
 </sst>
 </file>
 
@@ -140,14 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -459,18 +470,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9464F51-D6CA-254C-B404-8BB877CB06E8}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -541,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -594,7 +605,7 @@
         <v>14714948</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1992</v>
       </c>
@@ -647,7 +658,7 @@
         <v>15129150</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1993</v>
       </c>
@@ -700,7 +711,7 @@
         <v>15239182</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1995</v>
       </c>
@@ -759,7 +770,7 @@
         <v>15424122</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -839,7 +850,7 @@
         <v>15863950</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -919,7 +930,7 @@
         <v>16258032</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -999,7 +1010,7 @@
         <v>16357992</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -1079,7 +1090,7 @@
         <v>16405399</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1159,7 +1170,7 @@
         <v>16485787</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -1239,7 +1250,7 @@
         <v>16574989</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>16655799</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -1399,7 +1410,7 @@
         <v>16779575</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>16829289</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2017</v>
       </c>
@@ -1559,7 +1570,7 @@
         <v>17081507</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -1639,7 +1650,7 @@
         <v>17282163</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -1719,7 +1730,7 @@
         <v>17407585</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1799,7 +1810,7 @@
         <v>17475415</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -1877,6 +1888,783 @@
       </c>
       <c r="W19">
         <v>17590672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>0.16091133995172799</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.16091133995172799</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.16469405088851655</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.16557371648950711</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.16699887358256113</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.17071555318820344</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.17574716300226251</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.18551195036652421</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.19258501423830046</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.19859573582990003</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.20369497681114601</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.20832293905564062</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.21702647415086496</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.22163223889018721</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.23434302371564758</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.24177488662732785</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.24539831343635549</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.24919247983524281</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0.2522567074185682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>0.16469405088851655</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>0.16557371648950711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>0.16699887358256113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>0.17071555318820344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>0.17574716300226251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>0.18551195036652421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>0.19258501423830046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>0.19859573582990003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>0.20369497681114601</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>0.20832293905564062</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>0.21702647415086496</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>0.22163223889018721</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>0.23434302371564758</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>0.24177488662732785</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>0.24539831343635549</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>0.24919247983524281</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>0.2522567074185682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0DC14-CEEA-4B93-A268-A0CB1931C381}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08203125" customWidth="1"/>
+    <col min="10" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1986</v>
+      </c>
+      <c r="B2">
+        <v>1988</v>
+      </c>
+      <c r="I2">
+        <v>14714948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1992</v>
+      </c>
+      <c r="B3">
+        <v>1992</v>
+      </c>
+      <c r="I3">
+        <v>15129150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1993</v>
+      </c>
+      <c r="B4">
+        <v>1993</v>
+      </c>
+      <c r="I4">
+        <v>15239182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1995</v>
+      </c>
+      <c r="B5">
+        <v>1995</v>
+      </c>
+      <c r="I5">
+        <v>15424122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="I6">
+        <v>15863950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>2004</v>
+      </c>
+      <c r="C7">
+        <v>5037000</v>
+      </c>
+      <c r="D7">
+        <f>C7/I7</f>
+        <v>0.30981609582266784</v>
+      </c>
+      <c r="E7">
+        <v>4981000</v>
+      </c>
+      <c r="F7">
+        <f>E7/I7</f>
+        <v>0.30637164448932075</v>
+      </c>
+      <c r="G7">
+        <v>2876000</v>
+      </c>
+      <c r="H7">
+        <f>G7/I7</f>
+        <v>0.17689717919118378</v>
+      </c>
+      <c r="I7">
+        <v>16258032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8">
+        <v>2007</v>
+      </c>
+      <c r="C8">
+        <v>4779000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D19" si="0">C8/I8</f>
+        <v>0.29215077253980809</v>
+      </c>
+      <c r="E8">
+        <v>5182000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F19" si="1">E8/I8</f>
+        <v>0.31678704819026687</v>
+      </c>
+      <c r="G8">
+        <v>3099000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H19" si="2">G8/I8</f>
+        <v>0.18944868049819319</v>
+      </c>
+      <c r="I8">
+        <v>16357992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9">
+        <v>2008</v>
+      </c>
+      <c r="C9">
+        <v>4818000</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.2936838049473835</v>
+      </c>
+      <c r="E9">
+        <v>5118000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.31197046777100634</v>
+      </c>
+      <c r="G9">
+        <v>3237000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.19731309186689089</v>
+      </c>
+      <c r="I9">
+        <v>16405399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10">
+        <v>2009</v>
+      </c>
+      <c r="C10">
+        <v>4797000</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.29097791934349265</v>
+      </c>
+      <c r="E10">
+        <v>5103000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.30953936260367793</v>
+      </c>
+      <c r="G10">
+        <v>3348000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.2030840262584977</v>
+      </c>
+      <c r="I10">
+        <v>16485787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11">
+        <v>4748000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.28645569538537852</v>
+      </c>
+      <c r="E11">
+        <v>5117000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.30871815359877464</v>
+      </c>
+      <c r="G11">
+        <v>3443000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.2077226114599533</v>
+      </c>
+      <c r="I11">
+        <v>16574989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12">
+        <v>4792000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.28770760261936396</v>
+      </c>
+      <c r="E12">
+        <v>5128000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.30788075672623089</v>
+      </c>
+      <c r="G12">
+        <v>3448000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.20701498619189629</v>
+      </c>
+      <c r="I12">
+        <v>16655799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13">
+        <v>2013</v>
+      </c>
+      <c r="C13">
+        <v>4459000</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.26573974609011253</v>
+      </c>
+      <c r="E13">
+        <v>5258000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.3133571619066633</v>
+      </c>
+      <c r="G13">
+        <v>3715000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.2214001248541754</v>
+      </c>
+      <c r="I13">
+        <v>16779575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14">
+        <v>2014</v>
+      </c>
+      <c r="C14">
+        <v>4508000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.26786633707460844</v>
+      </c>
+      <c r="E14">
+        <v>5274000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.31338222309926461</v>
+      </c>
+      <c r="G14">
+        <v>3803000</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.22597508427123689</v>
+      </c>
+      <c r="I14">
+        <v>16829289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>2017</v>
+      </c>
+      <c r="C15">
+        <v>4339000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.25401740022118657</v>
+      </c>
+      <c r="E15">
+        <v>5306000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.31062833039262872</v>
+      </c>
+      <c r="G15">
+        <v>4150000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.24295280270060482</v>
+      </c>
+      <c r="I15">
+        <v>17081507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16">
+        <v>2019</v>
+      </c>
+      <c r="C16">
+        <v>4343000</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.25129956244481666</v>
+      </c>
+      <c r="E16">
+        <v>5300000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.30667457539892429</v>
+      </c>
+      <c r="G16">
+        <v>4409000</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.25511852885544478</v>
+      </c>
+      <c r="I16">
+        <v>17282163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17">
+        <v>4185000</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.24041244089860828</v>
+      </c>
+      <c r="E17">
+        <v>5293000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.30406285535874161</v>
+      </c>
+      <c r="G17">
+        <v>4678000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.26873342856002141</v>
+      </c>
+      <c r="I17">
+        <v>17407585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2021</v>
+      </c>
+      <c r="B18">
+        <v>2021</v>
+      </c>
+      <c r="C18">
+        <v>4070000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.23289861785828833</v>
+      </c>
+      <c r="E18">
+        <v>5372000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.30740328627388819</v>
+      </c>
+      <c r="G18">
+        <v>4915000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.28125226210650789</v>
+      </c>
+      <c r="I18">
+        <v>17475415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2022</v>
+      </c>
+      <c r="B19">
+        <v>2022</v>
+      </c>
+      <c r="C19">
+        <v>4120000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.23421504306373286</v>
+      </c>
+      <c r="E19">
+        <v>5279000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.30010223600326352</v>
+      </c>
+      <c r="G19">
+        <v>5046000</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.28685657944164955</v>
+      </c>
+      <c r="I19">
+        <v>17590672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>0.17689717919118378</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.17689717919118378</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.18944868049819319</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.19731309186689089</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.2030840262584977</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.2077226114599533</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.20701498619189629</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.2214001248541754</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.22597508427123689</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.24295280270060482</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.25511852885544478</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.26873342856002141</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.28125226210650789</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.28685657944164955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>0.18944868049819319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>0.19731309186689089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>0.2030840262584977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>0.2077226114599533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>0.20701498619189629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>0.2214001248541754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>0.22597508427123689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>0.24295280270060482</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>0.25511852885544478</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>0.26873342856002141</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>0.28125226210650789</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>0.28685657944164955</v>
       </c>
     </row>
   </sheetData>
